--- a/biology/Médecine/La_Dame_de_Saïgon/La_Dame_de_Saïgon.xlsx
+++ b/biology/Médecine/La_Dame_de_Saïgon/La_Dame_de_Saïgon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Dame_de_Sa%C3%AFgon</t>
+          <t>La_Dame_de_Saïgon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Dame de Saïgon est un téléfilm documentaire réalisé par Jocelyne Saab en 1997 au Vietnam pour la chaîne française France 2.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Dame_de_Sa%C3%AFgon</t>
+          <t>La_Dame_de_Saïgon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La doctoresse Duong Duinh Hoa a fait le maquis pendant la guerre du Viêt Nam, puis est devenue députée communiste au gouvernement. Elle crée ensuite un établissement de pédiatrie à Saïgon et des centres de santé dans le pays, ainsi qu'un système de crédit pour les plus démunis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La doctoresse Duong Duinh Hoa a fait le maquis pendant la guerre du Viêt Nam, puis est devenue députée communiste au gouvernement. Elle crée ensuite un établissement de pédiatrie à Saïgon et des centres de santé dans le pays, ainsi qu'un système de crédit pour les plus démunis.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Dame_de_Sa%C3%AFgon</t>
+          <t>La_Dame_de_Saïgon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Dame de Saïgon
 Réalisation : Jocelyne Saab
 Commentaire : Roger Assaf
-Photographie : Patrick Blossier[2], Barbara Doussot[3]
-Son : Pierre Doussot[2]
+Photographie : Patrick Blossier, Barbara Doussot
+Son : Pierre Doussot
 Production : ADR Productions
 Droits de diffusion : Nessim Ricardou
 Format : couleurs - Beta
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Dame_de_Sa%C3%AFgon</t>
+          <t>La_Dame_de_Saïgon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prix du meilleur film documentaire français du Sénat français[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prix du meilleur film documentaire français du Sénat français,.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Dame_de_Sa%C3%AFgon</t>
+          <t>La_Dame_de_Saïgon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est diffusé sur France 2 et dans de nombreux festivals internationaux[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est diffusé sur France 2 et dans de nombreux festivals internationaux.
 </t>
         </is>
       </c>
